--- a/inst/pacotes.xlsx
+++ b/inst/pacotes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340A0BB-031D-8D43-B0F6-7BD43C90B9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E1E94-D24A-2144-9FEB-C5DE24C5B1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="22760" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>pacote</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>https://usethis.r-lib.org/</t>
+  </si>
+  <si>
+    <t>flexdashboard</t>
+  </si>
+  <si>
+    <t>https://rmarkdown.rstudio.com/flexdashboard/</t>
+  </si>
+  <si>
+    <t>Seus resultados num dashboard em poucos minutos.</t>
   </si>
 </sst>
 </file>
@@ -543,14 +552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -709,6 +719,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{616CD904-0753-2348-BAC8-251F2CA182EC}"/>

--- a/inst/pacotes.xlsx
+++ b/inst/pacotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E1E94-D24A-2144-9FEB-C5DE24C5B1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BD1E5-5126-094B-ADA4-B4FC764C9E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="22760" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>pacote</t>
   </si>
@@ -155,6 +155,24 @@
   </si>
   <si>
     <t>Seus resultados num dashboard em poucos minutos.</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>https://github.com/sfirke/janitor</t>
+  </si>
+  <si>
+    <t>Arrume a bagunça da sua base de dados.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/broom/vignettes/broom.html</t>
+  </si>
+  <si>
+    <t>Arrume a bagunça dos seus modelos.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,9 +748,33 @@
         <v>43</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{616CD904-0753-2348-BAC8-251F2CA182EC}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{E3A8FAC1-38FF-044F-8976-8D3F1DAF6505}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{04D0ECE2-9A8F-1346-AC4E-1170CF6809F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/pacotes.xlsx
+++ b/inst/pacotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/inst/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\site-v2\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BD1E5-5126-094B-ADA4-B4FC764C9E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D5C08-72EC-492B-B95F-C85560C424BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="22760" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>pacote</t>
   </si>
@@ -173,6 +173,69 @@
   </si>
   <si>
     <t>Arrume a bagunça dos seus modelos.</t>
+  </si>
+  <si>
+    <t>vip</t>
+  </si>
+  <si>
+    <t>tidymodels</t>
+  </si>
+  <si>
+    <t>parsnip</t>
+  </si>
+  <si>
+    <t>rsamples</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>yardstick</t>
+  </si>
+  <si>
+    <t>dials</t>
+  </si>
+  <si>
+    <t>https://tidymodels.github.io/rsample/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reciclando a sua base de dados. </t>
+  </si>
+  <si>
+    <t>A filosofia tidy também para modelar.</t>
+  </si>
+  <si>
+    <t>https://tidymodels.github.io/tidymodels/</t>
+  </si>
+  <si>
+    <t>Construindo receitas para um modelo perfeito.</t>
+  </si>
+  <si>
+    <t>https://tidymodels.github.io/recipes/</t>
+  </si>
+  <si>
+    <t>https://github.com/tidymodels/yardstick</t>
+  </si>
+  <si>
+    <t>Medindo a performance do seu modelo.</t>
+  </si>
+  <si>
+    <t>https://github.com/tidymodels/dials</t>
+  </si>
+  <si>
+    <t>Tunando o seu modelo.</t>
+  </si>
+  <si>
+    <t>https://github.com/tidymodels/parsnip</t>
+  </si>
+  <si>
+    <t>Interface unificada de modelos de machine learning.</t>
+  </si>
+  <si>
+    <t>https://koalaverse.github.io/vip/index.html</t>
+  </si>
+  <si>
+    <t>Extraindo a importância das variáveis do seu modelo.</t>
   </si>
 </sst>
 </file>
@@ -225,15 +288,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -250,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,20 +634,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -605,7 +669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -616,7 +680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -627,7 +691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -638,7 +702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -649,7 +713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -660,7 +724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -671,7 +735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -682,7 +746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -693,7 +757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -704,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -715,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -726,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -737,7 +801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -748,34 +812,110 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{616CD904-0753-2348-BAC8-251F2CA182EC}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{E3A8FAC1-38FF-044F-8976-8D3F1DAF6505}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{04D0ECE2-9A8F-1346-AC4E-1170CF6809F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/inst/pacotes.xlsx
+++ b/inst/pacotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\site-v2\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D5C08-72EC-492B-B95F-C85560C424BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17DDE7-C3DA-404E-9FB0-FA9422B96DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>parsnip</t>
   </si>
   <si>
-    <t>rsamples</t>
-  </si>
-  <si>
     <t>recipes</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Extraindo a importância das variáveis do seu modelo.</t>
+  </si>
+  <si>
+    <t>rsample</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -637,17 +637,17 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -680,7 +680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -691,7 +691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -713,7 +713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -724,7 +724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -735,7 +735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -746,7 +746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -757,7 +757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -790,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -801,7 +801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -812,7 +812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -823,7 +823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -834,81 +834,81 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/inst/pacotes.xlsx
+++ b/inst/pacotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17DDE7-C3DA-404E-9FB0-FA9422B96DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F5B7E1-D85D-9F45-9735-8E7EBFC78737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24880" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>pacote</t>
   </si>
@@ -236,6 +236,24 @@
   </si>
   <si>
     <t>rsample</t>
+  </si>
+  <si>
+    <t>golem</t>
+  </si>
+  <si>
+    <t>Se seu app é um monstro, deixe-o robusto.</t>
+  </si>
+  <si>
+    <t>https://thinkr-open.github.io/golem/</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>https://www.rplumber.io/</t>
+  </si>
+  <si>
+    <t>Transforme seu script R em uma API.</t>
   </si>
 </sst>
 </file>
@@ -634,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -911,11 +929,38 @@
         <v>65</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{616CD904-0753-2348-BAC8-251F2CA182EC}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{67A919C4-91B2-1941-9BAB-678F55D12AC5}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{6F82FAF1-1538-1948-B0E6-7D7AA08820D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/inst/pacotes.xlsx
+++ b/inst/pacotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/site-v2/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F5B7E1-D85D-9F45-9735-8E7EBFC78737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FCB26-0A61-244E-AEEB-9035E54E4B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="24880" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>pacote</t>
   </si>
@@ -254,6 +254,33 @@
   </si>
   <si>
     <t>Transforme seu script R em uma API.</t>
+  </si>
+  <si>
+    <t>pkgdown</t>
+  </si>
+  <si>
+    <t>Seus pacotes maravilhosamente documentados.</t>
+  </si>
+  <si>
+    <t>https://pkgdown.r-lib.org/</t>
+  </si>
+  <si>
+    <t>testthat</t>
+  </si>
+  <si>
+    <t>https://testthat.r-lib.org/</t>
+  </si>
+  <si>
+    <t>Teste.</t>
+  </si>
+  <si>
+    <t>https://r-spatial.github.io/sf/</t>
+  </si>
+  <si>
+    <t>Simplificando dados espaciais.</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -652,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,7 +979,37 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
